--- a/frameworks/runtime-src/proj.win32/Debug.win32/res/data/xlsx/buffAction.xlsx
+++ b/frameworks/runtime-src/proj.win32/Debug.win32/res/data/xlsx/buffAction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>note</t>
   </si>
@@ -24,19 +24,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>function</t>
-  </si>
-  <si>
-    <t>param1</t>
-  </si>
-  <si>
-    <t>param2</t>
-  </si>
-  <si>
-    <t>param3</t>
   </si>
   <si>
     <t>增/减生命</t>
@@ -82,6 +70,21 @@
   </si>
   <si>
     <t>呵呵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+  </si>
+  <si>
+    <t>params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -479,7 +482,7 @@
     <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,139 +490,103 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -628,21 +595,15 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -651,21 +612,15 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -674,21 +629,15 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -697,16 +646,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>2011</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
